--- a/python-DataTransaction/Sample.xlsx
+++ b/python-DataTransaction/Sample.xlsx
@@ -1,115 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin.Wang\Desktop\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\我的雲端硬碟\Demo\Python\demo-python\python-DataTransaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C756A3-6875-4ABA-8C33-F883B51DBD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E973CAC-6C34-4BED-9DC8-64EEF43A93FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD6C5F54-5EE7-4B4C-BA8A-F0B7B55D9A74}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>服務日期(請輸入7碼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>身分證字號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服務日期(請輸入7碼)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服務項目代碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>服務類別
 1.補助
 2.自費</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務項目代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>數量
 (僅整數)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>單價</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服務人員身分證</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束時段-小時
+(24小時制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>起始時段-小時
 (24小時制)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>起始時段-分鐘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>結束時段-小時
-(24小時制)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>結束時段-分鐘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服務人員身分證2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服務人員身分證3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服務人員身分證4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服務人員身分證5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不申報AA09填1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>訪視未遇填1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C碼必填-復能目標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C碼必填-復能目標達成情形
@@ -118,47 +89,98 @@
 3.滿服務組數但尚未達復能目標
 4.未滿服務組數已結案，且已達復能目標
 5.未滿服務組數已結案，但未達復能目標</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C碼必填-復能目標</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C碼必填-指導對象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C碼必填-服務內容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C碼必填-指導建議摘要</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務人員身分證2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務人員身分證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務人員身分證3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務人員身分證4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務人員身分證5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OT01必填-餐別
 1.早餐
 2.午餐
 3.晚餐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD03、DA01使用-出發地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD03、DA01使用-目的地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD03、DA01使用-出發地(經度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD03、DA01使用-出發地(緯度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD03、DA01使用-目的地(經度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD03、DA01使用-目的地(緯度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD03、DA01使用-里程數(公里)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD03、DA01使用-車號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
-      <family val="2"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -169,32 +191,11 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,35 +230,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 3" xfId="1" xr:uid="{E0C21FE0-3A3F-4699-9D37-4D65F2C01A59}"/>
-    <cellStyle name="千分位 2" xfId="2" xr:uid="{B9DB7A7D-DB5A-4904-8B92-0A23BE006BD6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,9 +272,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,44 +282,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -348,31 +347,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -400,26 +382,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,234 +393,305 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E58CBB6-1551-4C05-BF80-9C6B3B850101}">
-  <dimension ref="A1:X1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15.75" style="3" customWidth="1"/>
+    <col min="19" max="19" width="43.5" style="3" customWidth="1"/>
+    <col min="20" max="22" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="18.625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="18.75" style="3" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="99" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="U1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="V1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/python-DataTransaction/Sample.xlsx
+++ b/python-DataTransaction/Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\我的雲端硬碟\Demo\Python\demo-python\python-DataTransaction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\demo-app2\python-DataTransaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E973CAC-6C34-4BED-9DC8-64EEF43A93FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB81E63A-7B4F-475D-96AA-1862BF65A152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>服務日期(請輸入7碼)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>BD03、DA01使用-車號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BD03必填-服務使用類型
+1.社區式長照機構
+2.社區服務據點(不含身障類)
+3.輔具中心
+4.身障日間照顧服務
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,6 +261,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -558,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -591,7 +603,7 @@
     <col min="33" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="99" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -687,6 +699,9 @@
       </c>
       <c r="AF1" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
